--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/V-GPI-630-200 (Тоник 0,2).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/V-GPI-630-200 (Тоник 0,2).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Наименование деталей</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>TONIC</t>
+  </si>
+  <si>
+    <t>стоит</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 185 гр.)</t>
   </si>
 </sst>
 </file>
@@ -681,7 +687,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -695,62 +701,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,9 +731,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,8 +782,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -868,28 +836,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -902,22 +856,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -926,6 +869,114 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1235,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1256,51 +1307,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1">
@@ -1311,73 +1362,73 @@
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="M4" s="11"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="45">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="31">
         <v>24</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="31">
         <v>24</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31">
         <f>E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="91"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="48">
+      <c r="A7" s="32">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1389,20 +1440,20 @@
       <c r="E7" s="7">
         <v>24</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G18" si="0">E7-F7</f>
         <v>24</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="91"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="91"/>
+      <c r="L7" s="67"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1412,20 +1463,20 @@
         <v>25</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="23"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="91"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="91"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48">
+      <c r="A9" s="32">
         <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1437,23 +1488,23 @@
       <c r="E9" s="7">
         <v>32</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="91"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="91"/>
+      <c r="L9" s="67"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48">
+      <c r="A10" s="32">
         <f t="shared" ref="A10:A18" si="1">A9+1</f>
         <v>4</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1465,23 +1516,23 @@
       <c r="E10" s="7">
         <v>32</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="66"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="91"/>
+      <c r="L10" s="67"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48">
+      <c r="A11" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1493,23 +1544,23 @@
       <c r="E11" s="7">
         <v>20</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="91"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="67"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48">
+      <c r="A12" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1521,23 +1572,23 @@
       <c r="E12" s="7">
         <v>20</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="66"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="91"/>
+      <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="48">
+      <c r="A13" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1549,24 +1600,24 @@
       <c r="E13" s="7">
         <v>60</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="33"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="48">
+      <c r="A14" s="32">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1578,24 +1629,24 @@
       <c r="E14" s="7">
         <v>20</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="33"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="48">
+      <c r="A15" s="32">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1607,25 +1658,25 @@
       <c r="E15" s="7">
         <v>8</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="91"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="48">
+      <c r="A16" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1637,23 +1688,23 @@
       <c r="E16" s="7">
         <v>50</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="91"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="67"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A17" s="48">
+      <c r="A17" s="32">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1665,48 +1716,48 @@
       <c r="E17" s="7">
         <v>60</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="91"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="49">
+      <c r="A18" s="33">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="35">
         <v>40</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="35">
         <v>24</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51">
+      <c r="F18" s="34"/>
+      <c r="G18" s="35">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="91"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="70"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1718,277 +1769,324 @@
     </row>
     <row r="20" spans="1:12" ht="16.2" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
+      <c r="J21" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="77">
+      <c r="A22" s="59">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B22" s="79">
+      <c r="B22" s="81">
         <v>43670</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="82">
         <v>43674</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="61">
         <v>43782</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="107">
         <v>847987</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="107">
         <v>988146</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="96">
         <f>F22/A$22</f>
         <v>5.8818214285714286E-2</v>
       </c>
-      <c r="H22" s="82">
+      <c r="H22" s="107">
         <f>A22-F22</f>
         <v>15811854</v>
       </c>
-      <c r="I22" s="83">
+      <c r="I22" s="62">
         <f>1-G22</f>
         <v>0.94118178571428568</v>
       </c>
-      <c r="J22" s="74"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="84">
+      <c r="A23" s="28"/>
+      <c r="B23" s="83">
         <v>43777</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="83">
         <v>43781</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="63">
         <v>43782</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="108">
         <v>918344</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="108">
         <v>1005163</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="96">
         <f>F23/A$22</f>
         <v>5.9831130952380955E-2</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="108">
         <f>H22-F23</f>
         <v>14806691</v>
       </c>
-      <c r="I23" s="87">
+      <c r="I23" s="64">
         <f>I22-G23</f>
         <v>0.88135065476190477</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="90"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="84">
+        <v>43858</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="8">
+        <v>43864</v>
+      </c>
+      <c r="E24" s="109">
+        <v>714679</v>
+      </c>
+      <c r="F24" s="109">
+        <v>809100</v>
+      </c>
+      <c r="G24" s="96">
+        <f>F24/A$22</f>
+        <v>4.8160714285714286E-2</v>
+      </c>
+      <c r="H24" s="108">
+        <f>H23-F24</f>
+        <v>13997591</v>
+      </c>
+      <c r="I24" s="64">
+        <f>I23-G24</f>
+        <v>0.83318994047619044</v>
+      </c>
+      <c r="J24" s="90">
+        <v>185</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="84">
+        <v>43863</v>
+      </c>
+      <c r="D25" s="88">
+        <v>43864</v>
+      </c>
+      <c r="E25" s="110">
+        <v>399924</v>
+      </c>
+      <c r="F25" s="110">
+        <v>410641</v>
+      </c>
+      <c r="G25" s="96">
+        <f>F25/A$22</f>
+        <v>2.4442916666666668E-2</v>
+      </c>
+      <c r="H25" s="108">
+        <f>H24-F25</f>
+        <v>13586950</v>
+      </c>
+      <c r="I25" s="64">
+        <f>I24-G25</f>
+        <v>0.80874702380952379</v>
+      </c>
+      <c r="J25" s="92">
+        <v>186</v>
+      </c>
+      <c r="K25" s="56"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="13"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="75"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="57"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="13"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="13"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="13"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="13"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="13"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="1"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="94"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="57">
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="102">
         <f>SUM(E22:E32)</f>
-        <v>1766331</v>
-      </c>
-      <c r="F33" s="56">
+        <v>2880934</v>
+      </c>
+      <c r="F33" s="103">
         <f>SUM(F22:F32)</f>
-        <v>1993309</v>
-      </c>
-      <c r="G33" s="25">
+        <v>3213050</v>
+      </c>
+      <c r="G33" s="104">
         <f>SUM(G22:G32)</f>
-        <v>0.11864934523809524</v>
-      </c>
-      <c r="H33" s="21">
+        <v>0.19125297619047621</v>
+      </c>
+      <c r="H33" s="105">
         <f>A22-F33</f>
-        <v>14806691</v>
-      </c>
-      <c r="I33" s="34">
+        <v>13586950</v>
+      </c>
+      <c r="I33" s="106">
         <f>1-G33</f>
-        <v>0.88135065476190477</v>
-      </c>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
+        <v>0.80874702380952379</v>
+      </c>
+      <c r="J33" s="95">
+        <f>MAX(J22:J32)</f>
+        <v>186</v>
+      </c>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
@@ -2003,12 +2101,12 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2017,14 +2115,14 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="80"/>
+      <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="1"/>
@@ -2035,27 +2133,27 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="96">
+      <c r="A39" s="78">
         <f>A22-F33</f>
-        <v>14806691</v>
-      </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="78">
+        <v>13586950</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="60">
         <f>1-G33</f>
-        <v>0.88135065476190477</v>
-      </c>
-      <c r="D39" s="22">
+        <v>0.80874702380952379</v>
+      </c>
+      <c r="D39" s="16">
         <f>(C39/0.8)*100</f>
-        <v>110.16883184523809</v>
-      </c>
-      <c r="E39" s="90" t="s">
+        <v>101.09337797619047</v>
+      </c>
+      <c r="E39" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
@@ -2093,113 +2191,113 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="95"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="64"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="64"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="64"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="64"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="64"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="64"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="64"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="64"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="1"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="68"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2207,40 +2305,40 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="62"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="95"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="77"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="63"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="63"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1"/>
@@ -2253,24 +2351,18 @@
       <c r="H57" s="1"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="94"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="94"/>
-      <c r="C69" s="95"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="77"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A38:B38"/>
@@ -2278,6 +2370,12 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/V-GPI-630-200 (Тоник 0,2).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/V-GPI-630-200 (Тоник 0,2).xlsx
@@ -169,7 +169,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -266,16 +266,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -687,7 +677,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -717,19 +707,10 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,18 +734,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -812,8 +787,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,11 +831,119 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -870,113 +953,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1286,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1307,51 +1291,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1">
@@ -1362,73 +1346,73 @@
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="29">
+      <c r="A6" s="26">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>24</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>24</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31">
+      <c r="F6" s="109"/>
+      <c r="G6" s="27">
         <f>E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="67"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="32">
+      <c r="A7" s="28">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1438,22 +1422,22 @@
         <v>23</v>
       </c>
       <c r="E7" s="7">
-        <v>24</v>
-      </c>
-      <c r="F7" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="110"/>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G18" si="0">E7-F7</f>
-        <v>24</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="67"/>
+        <v>23</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="67"/>
+      <c r="L7" s="62"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="32"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1462,21 +1446,23 @@
       <c r="D8" s="7">
         <v>25</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="7">
+        <v>25</v>
+      </c>
+      <c r="F8" s="110"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="67"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="67"/>
+      <c r="L8" s="62"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="32">
+      <c r="A9" s="28">
         <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1488,23 +1474,23 @@
       <c r="E9" s="7">
         <v>32</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="67"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="67"/>
+      <c r="L9" s="62"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="32">
+      <c r="A10" s="28">
         <f t="shared" ref="A10:A18" si="1">A9+1</f>
         <v>4</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1516,23 +1502,23 @@
       <c r="E10" s="7">
         <v>32</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="48"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="67"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="32">
+      <c r="A11" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1542,25 +1528,25 @@
         <v>30</v>
       </c>
       <c r="E11" s="7">
-        <v>20</v>
-      </c>
-      <c r="F11" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="110"/>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="67"/>
+        <v>30</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="62"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="32">
+      <c r="A12" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1570,25 +1556,25 @@
         <v>30</v>
       </c>
       <c r="E12" s="7">
-        <v>20</v>
-      </c>
-      <c r="F12" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="110"/>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="48"/>
+        <v>30</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="67"/>
+      <c r="L12" s="62"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="32">
+      <c r="A13" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1598,26 +1584,28 @@
         <v>100</v>
       </c>
       <c r="E13" s="7">
-        <v>60</v>
-      </c>
-      <c r="F13" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="110">
+        <v>4</v>
+      </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1627,26 +1615,26 @@
         <v>24</v>
       </c>
       <c r="E14" s="7">
-        <v>20</v>
-      </c>
-      <c r="F14" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="110"/>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1658,25 +1646,25 @@
       <c r="E15" s="7">
         <v>8</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="67"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="62"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1688,23 +1676,23 @@
       <c r="E16" s="7">
         <v>50</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="67"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="62"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A17" s="32">
+      <c r="A17" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1714,50 +1702,50 @@
         <v>80</v>
       </c>
       <c r="E17" s="7">
-        <v>60</v>
-      </c>
-      <c r="F17" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="F17" s="110"/>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="67"/>
+        <v>80</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="62"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="33">
+      <c r="A18" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="30">
         <v>40</v>
       </c>
-      <c r="E18" s="35">
-        <v>24</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35">
+      <c r="E18" s="30">
+        <v>40</v>
+      </c>
+      <c r="F18" s="111"/>
+      <c r="G18" s="30">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="67"/>
+        <v>40</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="52"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1769,7 +1757,7 @@
     </row>
     <row r="20" spans="1:12" ht="16.2" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="10"/>
@@ -1779,278 +1767,278 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="59">
+      <c r="A22" s="54">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="65">
         <v>43670</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="66">
         <v>43674</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="56">
         <v>43782</v>
       </c>
-      <c r="E22" s="107">
+      <c r="E22" s="91">
         <v>847987</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="91">
         <v>988146</v>
       </c>
-      <c r="G22" s="96">
+      <c r="G22" s="80">
         <f>F22/A$22</f>
         <v>5.8818214285714286E-2</v>
       </c>
-      <c r="H22" s="107">
+      <c r="H22" s="91">
         <f>A22-F22</f>
         <v>15811854</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="57">
         <f>1-G22</f>
         <v>0.94118178571428568</v>
       </c>
-      <c r="J22" s="89"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="83">
+      <c r="A23" s="25"/>
+      <c r="B23" s="67">
         <v>43777</v>
       </c>
-      <c r="C23" s="83">
+      <c r="C23" s="67">
         <v>43781</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="58">
         <v>43782</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="92">
         <v>918344</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="92">
         <v>1005163</v>
       </c>
-      <c r="G23" s="96">
+      <c r="G23" s="80">
         <f>F23/A$22</f>
         <v>5.9831130952380955E-2</v>
       </c>
-      <c r="H23" s="108">
-        <f>H22-F23</f>
+      <c r="H23" s="92">
+        <f t="shared" ref="H23:I25" si="2">H22-F23</f>
         <v>14806691</v>
       </c>
-      <c r="I23" s="64">
-        <f>I22-G23</f>
+      <c r="I23" s="59">
+        <f t="shared" si="2"/>
         <v>0.88135065476190477</v>
       </c>
-      <c r="J23" s="90"/>
+      <c r="J23" s="74"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="84">
+      <c r="B24" s="68">
         <v>43858</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8">
         <v>43864</v>
       </c>
-      <c r="E24" s="109">
+      <c r="E24" s="93">
         <v>714679</v>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="93">
         <v>809100</v>
       </c>
-      <c r="G24" s="96">
+      <c r="G24" s="80">
         <f>F24/A$22</f>
         <v>4.8160714285714286E-2</v>
       </c>
-      <c r="H24" s="108">
-        <f>H23-F24</f>
+      <c r="H24" s="92">
+        <f t="shared" si="2"/>
         <v>13997591</v>
       </c>
-      <c r="I24" s="64">
-        <f>I23-G24</f>
+      <c r="I24" s="59">
+        <f t="shared" si="2"/>
         <v>0.83318994047619044</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="74">
         <v>185</v>
       </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="11"/>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="68">
         <v>43863</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="72">
         <v>43864</v>
       </c>
-      <c r="E25" s="110">
+      <c r="E25" s="94">
         <v>399924</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="94">
         <v>410641</v>
       </c>
-      <c r="G25" s="96">
+      <c r="G25" s="80">
         <f>F25/A$22</f>
         <v>2.4442916666666668E-2</v>
       </c>
-      <c r="H25" s="108">
-        <f>H24-F25</f>
+      <c r="H25" s="92">
+        <f t="shared" si="2"/>
         <v>13586950</v>
       </c>
-      <c r="I25" s="64">
-        <f>I24-G25</f>
+      <c r="I25" s="59">
+        <f t="shared" si="2"/>
         <v>0.80874702380952379</v>
       </c>
-      <c r="J25" s="92">
+      <c r="J25" s="76">
         <v>186</v>
       </c>
-      <c r="K25" s="56"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="11"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="57"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="11"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="56"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="11"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="56"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="11"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="56"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="51"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="11"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="56"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="51"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="11"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="56"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="51"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="78"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
@@ -2058,35 +2046,35 @@
       <c r="A33" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="102">
+      <c r="E33" s="86">
         <f>SUM(E22:E32)</f>
         <v>2880934</v>
       </c>
-      <c r="F33" s="103">
+      <c r="F33" s="87">
         <f>SUM(F22:F32)</f>
         <v>3213050</v>
       </c>
-      <c r="G33" s="104">
+      <c r="G33" s="88">
         <f>SUM(G22:G32)</f>
         <v>0.19125297619047621</v>
       </c>
-      <c r="H33" s="105">
+      <c r="H33" s="89">
         <f>A22-F33</f>
         <v>13586950</v>
       </c>
-      <c r="I33" s="106">
+      <c r="I33" s="90">
         <f>1-G33</f>
         <v>0.80874702380952379</v>
       </c>
-      <c r="J33" s="95">
+      <c r="J33" s="79">
         <f>MAX(J22:J32)</f>
         <v>186</v>
       </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
@@ -2101,12 +2089,12 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2115,10 +2103,10 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
@@ -2133,12 +2121,12 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="78">
+      <c r="A39" s="100">
         <f>A22-F33</f>
         <v>13586950</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="60">
+      <c r="B39" s="101"/>
+      <c r="C39" s="55">
         <f>1-G33</f>
         <v>0.80874702380952379</v>
       </c>
@@ -2146,14 +2134,14 @@
         <f>(C39/0.8)*100</f>
         <v>101.09337797619047</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
@@ -2191,113 +2179,113 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="99"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="46"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="46"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="46"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="46"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="46"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="46"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="46"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="41"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="1"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="50"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="45"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2305,40 +2293,40 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="77"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="99"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="45"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="45"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1"/>
@@ -2351,18 +2339,24 @@
       <c r="H57" s="1"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="76"/>
-      <c r="C62" s="77"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="99"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="99"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A38:B38"/>
@@ -2370,12 +2364,6 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
